--- a/Libraries/Vehicle/Tire/MFEval/sm_car_data_Tire_MFEval.xlsx
+++ b/Libraries/Vehicle/Tire/MFEval/sm_car_data_Tire_MFEval.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Tire\MFEval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82ECB2D9-F7A4-445C-B19C-352C2B88CAFE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F6FD49-47C9-4CC7-907D-B3A56C2CB653}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="1245" windowWidth="16965" windowHeight="11865" tabRatio="676" xr2:uid="{77C5F530-BF82-43C8-8187-4F4154957BDB}"/>
+    <workbookView xWindow="1464" yWindow="1488" windowWidth="20424" windowHeight="10212" tabRatio="676" activeTab="4" xr2:uid="{77C5F530-BF82-43C8-8187-4F4154957BDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Tir_235_50R24" sheetId="2" r:id="rId1"/>
     <sheet name="Tir_213_40R21" sheetId="3" r:id="rId2"/>
     <sheet name="Tir_270_70R22" sheetId="4" r:id="rId3"/>
     <sheet name="Tir_145_70R13" sheetId="5" r:id="rId4"/>
+    <sheet name="Tir_430_50R38" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="26">
   <si>
     <t>Units</t>
   </si>
@@ -106,6 +107,12 @@
   </si>
   <si>
     <t>car235_50R24.tir</t>
+  </si>
+  <si>
+    <t>MFEval_430_50R38</t>
+  </si>
+  <si>
+    <t>Truck_430_50R38.tir</t>
   </si>
 </sst>
 </file>
@@ -224,7 +231,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -624,7 +652,7 @@
   </sheetPr>
   <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
@@ -632,18 +660,18 @@
       <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -663,7 +691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -694,7 +722,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -724,7 +752,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -755,7 +783,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
@@ -784,7 +812,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>10</v>
       </c>
@@ -812,7 +840,7 @@
       <c r="S6"/>
       <c r="T6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>13</v>
       </c>
@@ -835,93 +863,93 @@
       <c r="S7"/>
       <c r="T7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="C18" s="17"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="C19" s="17"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="6"/>
       <c r="C22" s="17"/>
@@ -943,7 +971,7 @@
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="6"/>
       <c r="C23" s="17"/>
@@ -967,17 +995,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C18:C21 A18:A21 C4:D5 C6:C10 A4:A10">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1000,20 +1028,20 @@
       <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="10" width="6.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="10" width="6.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1033,7 +1061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1064,7 +1092,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1094,7 +1122,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -1125,7 +1153,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
@@ -1154,7 +1182,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>10</v>
       </c>
@@ -1182,7 +1210,7 @@
       <c r="S6"/>
       <c r="T6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>13</v>
       </c>
@@ -1205,93 +1233,93 @@
       <c r="S7"/>
       <c r="T7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="C18" s="17"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="C19" s="17"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="6"/>
       <c r="C22" s="17"/>
@@ -1313,7 +1341,7 @@
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="6"/>
       <c r="C23" s="17"/>
@@ -1337,17 +1365,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C18:C21 A18:A21 C4:D5 C6:C10 A4:A10">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1370,20 +1398,20 @@
       <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="10" width="6.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="10" width="6.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1403,7 +1431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1434,7 +1462,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1464,7 +1492,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -1495,7 +1523,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
@@ -1524,7 +1552,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>10</v>
       </c>
@@ -1552,7 +1580,7 @@
       <c r="S6"/>
       <c r="T6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>13</v>
       </c>
@@ -1575,93 +1603,93 @@
       <c r="S7"/>
       <c r="T7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="C18" s="17"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="C19" s="17"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="6"/>
       <c r="C22" s="17"/>
@@ -1683,7 +1711,7 @@
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="6"/>
       <c r="C23" s="17"/>
@@ -1707,17 +1735,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C18:C21 A18:A21 C4:D5 C6:C10 A4:A10">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1740,20 +1768,20 @@
       <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="10" width="6.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="10" width="6.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1773,7 +1801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1804,7 +1832,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1834,7 +1862,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -1865,7 +1893,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
@@ -1894,7 +1922,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>10</v>
       </c>
@@ -1922,7 +1950,7 @@
       <c r="S6"/>
       <c r="T6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>13</v>
       </c>
@@ -1945,93 +1973,93 @@
       <c r="S7"/>
       <c r="T7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="C18" s="17"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="C19" s="17"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="6"/>
       <c r="C22" s="17"/>
@@ -2053,7 +2081,7 @@
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="6"/>
       <c r="C23" s="17"/>
@@ -2077,6 +2105,376 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C18:C21 A18:A21 C4:D5 C6:C10 A4:A10">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8227B883-F499-4636-A0E6-198D9BE18409}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:AA23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="10" width="6.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+    </row>
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+    </row>
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+    </row>
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+    </row>
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6"/>
+      <c r="N6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+    </row>
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="M7" s="16"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+    </row>
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="17"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="17"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="17"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="17"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C18:C21 A18:A21 C4:D5 C6:C10 A4:A10">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>

--- a/Libraries/Vehicle/Tire/MFEval/sm_car_data_Tire_MFEval.xlsx
+++ b/Libraries/Vehicle/Tire/MFEval/sm_car_data_Tire_MFEval.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Tire\MFEval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F6FD49-47C9-4CC7-907D-B3A56C2CB653}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE36ED38-9D88-4D36-AF66-89397446B6B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1488" windowWidth="20424" windowHeight="10212" tabRatio="676" activeTab="4" xr2:uid="{77C5F530-BF82-43C8-8187-4F4154957BDB}"/>
+    <workbookView xWindow="1020" yWindow="252" windowWidth="17496" windowHeight="12120" tabRatio="676" firstSheet="1" activeTab="5" xr2:uid="{77C5F530-BF82-43C8-8187-4F4154957BDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Tir_235_50R24" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Tir_270_70R22" sheetId="4" r:id="rId3"/>
     <sheet name="Tir_145_70R13" sheetId="5" r:id="rId4"/>
     <sheet name="Tir_430_50R38" sheetId="6" r:id="rId5"/>
+    <sheet name="Tir_190_50R10" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="28">
   <si>
     <t>Units</t>
   </si>
@@ -113,6 +114,12 @@
   </si>
   <si>
     <t>Truck_430_50R38.tir</t>
+  </si>
+  <si>
+    <t>fsae190_50R10.tir</t>
+  </si>
+  <si>
+    <t>MFEval_190_50R10</t>
   </si>
 </sst>
 </file>
@@ -231,7 +238,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -995,17 +1023,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C18:C21 A18:A21 C4:D5 C6:C10 A4:A10">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1365,17 +1393,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C18:C21 A18:A21 C4:D5 C6:C10 A4:A10">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1735,17 +1763,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C18:C21 A18:A21 C4:D5 C6:C10 A4:A10">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2105,17 +2133,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C18:C21 A18:A21 C4:D5 C6:C10 A4:A10">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2130,8 +2158,8 @@
   </sheetPr>
   <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
@@ -2475,6 +2503,376 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C18:C21 A18:A21 C4:D5 C6:C10 A4:A10">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F5A5B2-54A0-4A29-96D4-8E99C00F2423}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:AA23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="10" width="6.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+    </row>
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+    </row>
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+    </row>
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+    </row>
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6"/>
+      <c r="N6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+    </row>
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="M7" s="16"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+    </row>
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="17"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="17"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="17"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="17"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C18:C21 A18:A21 C4:D5 C6:C10 A4:A10">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>

--- a/Libraries/Vehicle/Tire/MFEval/sm_car_data_Tire_MFEval.xlsx
+++ b/Libraries/Vehicle/Tire/MFEval/sm_car_data_Tire_MFEval.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Tire\MFEval\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\simscape\demo\allsimscape\cars\vehicle-templates\Libraries\Vehicle\Tire\MFEval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE36ED38-9D88-4D36-AF66-89397446B6B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E0EC45-D91B-4A04-8E78-0E9A88F7A11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="252" windowWidth="17496" windowHeight="12120" tabRatio="676" firstSheet="1" activeTab="5" xr2:uid="{77C5F530-BF82-43C8-8187-4F4154957BDB}"/>
+    <workbookView xWindow="9885" yWindow="1500" windowWidth="18750" windowHeight="14040" tabRatio="676" xr2:uid="{77C5F530-BF82-43C8-8187-4F4154957BDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Tir_235_50R24" sheetId="2" r:id="rId1"/>
@@ -77,9 +77,6 @@
     <t>2 linear transients</t>
   </si>
   <si>
-    <t>Mode</t>
-  </si>
-  <si>
     <t>1 combined</t>
   </si>
   <si>
@@ -120,6 +117,9 @@
   </si>
   <si>
     <t>MFEval_190_50R10</t>
+  </si>
+  <si>
+    <t>Slip</t>
   </si>
 </sst>
 </file>
@@ -238,7 +238,42 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="23">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -680,26 +715,26 @@
   </sheetPr>
   <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -719,7 +754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -729,7 +764,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -750,7 +785,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -759,7 +794,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
@@ -780,7 +815,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -811,7 +846,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
@@ -819,7 +854,7 @@
       <c r="C5" s="14"/>
       <c r="G5" s="15"/>
       <c r="H5" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
@@ -840,7 +875,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>10</v>
       </c>
@@ -868,16 +903,16 @@
       <c r="S6"/>
       <c r="T6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -891,93 +926,93 @@
       <c r="S7"/>
       <c r="T7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="C18" s="17"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="C19" s="17"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="6"/>
       <c r="C22" s="17"/>
@@ -999,7 +1034,7 @@
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="6"/>
       <c r="C23" s="17"/>
@@ -1022,18 +1057,23 @@
       <c r="T23" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C18:C21 A18:A21 C4:D5 C6:C10 A4:A10">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+  <conditionalFormatting sqref="C18:C21 A18:A21 C4:D5 C6:C10 A4:A6 A8:A10">
+    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1053,23 +1093,23 @@
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="10" width="6.6640625" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="10" width="6.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1089,7 +1129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1099,7 +1139,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -1120,7 +1160,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1129,7 +1169,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
@@ -1150,7 +1190,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -1181,7 +1221,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
@@ -1189,7 +1229,7 @@
       <c r="C5" s="14"/>
       <c r="G5" s="15"/>
       <c r="H5" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
@@ -1210,7 +1250,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>10</v>
       </c>
@@ -1238,16 +1278,16 @@
       <c r="S6"/>
       <c r="T6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -1261,93 +1301,93 @@
       <c r="S7"/>
       <c r="T7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="C18" s="17"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="C19" s="17"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="6"/>
       <c r="C22" s="17"/>
@@ -1369,7 +1409,7 @@
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="6"/>
       <c r="C23" s="17"/>
@@ -1392,18 +1432,23 @@
       <c r="T23" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C18:C21 A18:A21 C4:D5 C6:C10 A4:A10">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+  <conditionalFormatting sqref="C18:C21 A18:A21 C4:D5 C6:C10 A4:A6 A8:A10">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1423,23 +1468,23 @@
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="10" width="6.6640625" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="10" width="6.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1459,7 +1504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1469,7 +1514,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -1490,7 +1535,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1499,7 +1544,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
@@ -1520,7 +1565,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -1551,7 +1596,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
@@ -1559,7 +1604,7 @@
       <c r="C5" s="14"/>
       <c r="G5" s="15"/>
       <c r="H5" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
@@ -1580,7 +1625,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>10</v>
       </c>
@@ -1608,16 +1653,16 @@
       <c r="S6"/>
       <c r="T6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -1631,93 +1676,93 @@
       <c r="S7"/>
       <c r="T7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="C18" s="17"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="C19" s="17"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="6"/>
       <c r="C22" s="17"/>
@@ -1739,7 +1784,7 @@
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="6"/>
       <c r="C23" s="17"/>
@@ -1762,18 +1807,23 @@
       <c r="T23" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C18:C21 A18:A21 C4:D5 C6:C10 A4:A10">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+  <conditionalFormatting sqref="C18:C21 A18:A21 C4:D5 C6:C10 A4:A6 A8:A10">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1793,23 +1843,23 @@
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="10" width="6.6640625" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="10" width="6.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1829,7 +1879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1839,7 +1889,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -1860,7 +1910,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1869,7 +1919,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
@@ -1890,7 +1940,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -1921,7 +1971,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
@@ -1929,7 +1979,7 @@
       <c r="C5" s="14"/>
       <c r="G5" s="15"/>
       <c r="H5" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
@@ -1950,7 +2000,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>10</v>
       </c>
@@ -1978,16 +2028,16 @@
       <c r="S6"/>
       <c r="T6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -2001,93 +2051,93 @@
       <c r="S7"/>
       <c r="T7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="C18" s="17"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="C19" s="17"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="6"/>
       <c r="C22" s="17"/>
@@ -2109,7 +2159,7 @@
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="6"/>
       <c r="C23" s="17"/>
@@ -2132,18 +2182,23 @@
       <c r="T23" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C18:C21 A18:A21 C4:D5 C6:C10 A4:A10">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+  <conditionalFormatting sqref="C18:C21 A18:A21 C4:D5 C6:C10 A4:A6 A8:A10">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2163,23 +2218,23 @@
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="10" width="6.6640625" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="10" width="6.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2199,7 +2254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2209,7 +2264,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -2230,7 +2285,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -2239,7 +2294,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
@@ -2260,7 +2315,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -2291,7 +2346,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
@@ -2299,7 +2354,7 @@
       <c r="C5" s="14"/>
       <c r="G5" s="15"/>
       <c r="H5" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
@@ -2320,7 +2375,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>10</v>
       </c>
@@ -2348,16 +2403,16 @@
       <c r="S6"/>
       <c r="T6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -2371,93 +2426,93 @@
       <c r="S7"/>
       <c r="T7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="C18" s="17"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="C19" s="17"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="6"/>
       <c r="C22" s="17"/>
@@ -2479,7 +2534,7 @@
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="6"/>
       <c r="C23" s="17"/>
@@ -2502,18 +2557,23 @@
       <c r="T23" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C18:C21 A18:A21 C4:D5 C6:C10 A4:A10">
+  <conditionalFormatting sqref="C18:C21 A18:A21 C4:D5 C6:C10 A4:A6 A8:A10">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22">
     <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
+  <conditionalFormatting sqref="A7">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2528,28 +2588,28 @@
   </sheetPr>
   <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="10" width="6.6640625" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="10" width="6.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2569,7 +2629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2579,7 +2639,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -2600,7 +2660,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -2609,7 +2669,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
@@ -2630,7 +2690,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -2661,7 +2721,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
@@ -2669,7 +2729,7 @@
       <c r="C5" s="14"/>
       <c r="G5" s="15"/>
       <c r="H5" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
@@ -2690,7 +2750,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>10</v>
       </c>
@@ -2718,16 +2778,16 @@
       <c r="S6"/>
       <c r="T6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -2741,93 +2801,93 @@
       <c r="S7"/>
       <c r="T7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="C18" s="17"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="C19" s="17"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="6"/>
       <c r="C22" s="17"/>
@@ -2849,7 +2909,7 @@
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="6"/>
       <c r="C23" s="17"/>
@@ -2873,17 +2933,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C18:C21 A18:A21 C4:D5 C6:C10 A4:A10">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Libraries/Vehicle/Tire/MFEval/sm_car_data_Tire_MFEval.xlsx
+++ b/Libraries/Vehicle/Tire/MFEval/sm_car_data_Tire_MFEval.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Tire\MFEval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53B50C7-094B-46B1-8115-B507A5093149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAAC926E-FBED-42D4-83E2-494557292F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5085" yWindow="1005" windowWidth="20595" windowHeight="11235" tabRatio="676" activeTab="2" xr2:uid="{77C5F530-BF82-43C8-8187-4F4154957BDB}"/>
+    <workbookView xWindow="4740" yWindow="2640" windowWidth="21555" windowHeight="11295" tabRatio="826" activeTab="3" xr2:uid="{77C5F530-BF82-43C8-8187-4F4154957BDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Tir_235_50R24" sheetId="2" r:id="rId1"/>
     <sheet name="Tir_213_40R21" sheetId="3" r:id="rId2"/>
     <sheet name="Tir_214_10R39" sheetId="8" r:id="rId3"/>
-    <sheet name="Tir_270_70R22" sheetId="4" r:id="rId4"/>
-    <sheet name="Tir_145_70R13" sheetId="5" r:id="rId5"/>
-    <sheet name="Tir_430_50R38" sheetId="6" r:id="rId6"/>
-    <sheet name="Tir_190_50R10" sheetId="7" r:id="rId7"/>
+    <sheet name="Tir_235_80R17" sheetId="9" r:id="rId4"/>
+    <sheet name="Tir_270_70R22" sheetId="4" r:id="rId5"/>
+    <sheet name="Tir_145_70R13" sheetId="5" r:id="rId6"/>
+    <sheet name="Tir_430_50R38" sheetId="6" r:id="rId7"/>
+    <sheet name="Tir_190_50R10" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="32">
   <si>
     <t>Units</t>
   </si>
@@ -127,6 +128,12 @@
   </si>
   <si>
     <t>Truck_214_10R39.tir</t>
+  </si>
+  <si>
+    <t>MFEval_235_80R17</t>
+  </si>
+  <si>
+    <t>car235_80R17.tir</t>
   </si>
 </sst>
 </file>
@@ -241,7 +248,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="23">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -899,17 +927,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A10">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A23">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:D5 C6:C10 C18:C21">
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1128,17 +1156,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A10">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A23">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:D5 C6:C10 C18:C21">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1153,7 +1181,7 @@
   </sheetPr>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
@@ -1357,6 +1385,235 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A10">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:A23">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:D5 C6:C10 C18:C21">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D166452-AB0D-40CB-9577-F9B638C4FD74}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:N23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="N19" sqref="N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="10" width="6.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="15"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="16"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="16"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="16"/>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="16"/>
+      <c r="H23" s="17"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4:A10">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
@@ -1375,7 +1632,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56B680BE-54EA-40BD-AC67-8899548C81C3}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
@@ -1604,7 +1861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E62A82-FB03-4224-810D-ACE620F85B08}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
@@ -1833,7 +2090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8227B883-F499-4636-A0E6-198D9BE18409}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
@@ -2062,7 +2319,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F5A5B2-54A0-4A29-96D4-8E99C00F2423}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
